--- a/列表&字典&元组&集合.xlsx
+++ b/列表&字典&元组&集合.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\Demaria\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BEAC943-15D5-474B-AD35-9F3CCE424CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C37E39-AFEB-40FF-982B-AD9A7CA795C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2115,7 +2114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2161,6 +2160,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2249,7 +2255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2266,12 +2272,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2291,7 +2366,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2582,12 +2657,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
@@ -2597,16 +2672,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3003,7 +3078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.5">
+    <row r="32" spans="1:5">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>

--- a/列表&字典&元组&集合.xlsx
+++ b/列表&字典&元组&集合.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longzhan/Desktop/PytestExecute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C37E39-AFEB-40FF-982B-AD9A7CA795C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B97E4C-7F96-6D42-AEA4-57ECB5B0B7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>列表</t>
   </si>
@@ -2108,6 +2108,10 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>可变12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2268,85 +2272,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2366,7 +2302,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2659,33 +2595,33 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="33.53515625" customWidth="1"/>
-    <col min="5" max="5" width="41.84375" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5">
+    <row r="1" spans="1:8" ht="17">
       <c r="A1" s="1"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5">
+    <row r="2" spans="1:8" ht="17">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2702,7 +2638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="17">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2719,7 +2655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="17">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2736,7 +2672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="17">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2750,10 +2686,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2771,7 +2707,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="65.25" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2787,8 +2723,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2800,7 +2736,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="82.5">
+    <row r="9" spans="1:8" ht="90">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2816,7 +2752,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2832,8 +2768,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2846,8 +2782,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
@@ -2857,8 +2793,8 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2874,8 +2810,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:8" ht="17">
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
@@ -2887,8 +2823,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:8" ht="17">
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,7 +2837,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>73</v>
       </c>
@@ -2913,8 +2849,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:5" ht="17">
+      <c r="A17" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2928,8 +2864,8 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5">
-      <c r="A18" s="8"/>
+    <row r="18" spans="1:5" ht="17">
+      <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
@@ -2939,8 +2875,8 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5" ht="17">
+      <c r="A19" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2954,8 +2890,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:5" ht="17">
+      <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>79</v>
       </c>
@@ -2965,8 +2901,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5">
-      <c r="A21" s="10"/>
+    <row r="21" spans="1:5" ht="17">
+      <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
@@ -2976,8 +2912,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:5" ht="17">
+      <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,8 +2923,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:5" ht="17">
+      <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
@@ -2998,8 +2934,8 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:5" ht="17">
+      <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
@@ -3007,7 +2943,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="17">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -3018,7 +2954,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="17">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>48</v>
@@ -3027,7 +2963,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5">
+    <row r="27" spans="1:5" ht="17">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>83</v>
@@ -3036,7 +2972,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="66">
+    <row r="28" spans="1:5" ht="72">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -3047,7 +2983,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="99">
+    <row r="29" spans="1:5" ht="108">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -3056,7 +2992,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="214.5">
+    <row r="30" spans="1:5" ht="234">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -3067,7 +3003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="82.5">
+    <row r="31" spans="1:5" ht="90">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
